--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2134.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2134.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.831671042237022</v>
+        <v>0.6372756958007812</v>
       </c>
       <c r="B1">
-        <v>3.444637827602584</v>
+        <v>1.485128164291382</v>
       </c>
       <c r="C1">
-        <v>1.353079937701061</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.8800055567941228</v>
+        <v>2.295554637908936</v>
       </c>
       <c r="E1">
-        <v>0.7196614867671568</v>
+        <v>1.365162253379822</v>
       </c>
     </row>
   </sheetData>
